--- a/data/trans_orig/P04C05_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P04C05_2023-Estudios-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{22B51311-2996-4AB5-BBFE-F27C8CE443CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DC6EDA6B-CA17-4E0E-95AF-A94B1C4E7990}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D2F5D755-227F-4C70-BE29-94CE30AC67A3}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C8E5C4E8-0FC6-47DF-9B9A-DFD74B5B86FC}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -807,7 +807,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CA75A99-DCC7-4A24-84F3-63DE7C41CA81}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66151C66-D352-45A5-9EDC-E866107CD8FA}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P04C05_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P04C05_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DC6EDA6B-CA17-4E0E-95AF-A94B1C4E7990}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2D6D8672-B324-44E1-AF10-003AD6D7B5E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C8E5C4E8-0FC6-47DF-9B9A-DFD74B5B86FC}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{91140314-702F-4EA7-963E-5C8B2C3E89DB}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,9 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="120">
-  <si>
-    <t>Hogares con refrigeración por aire acondicionado mediante aparatos fijos en 2023 (Tasa respuesta: 99,87%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="125">
+  <si>
+    <t>Población con refrigeración por aire acondicionado mediante aparatos fijos en la vivienda en 2023 (Tasa respuesta: 99,87%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -74,28 +74,28 @@
     <t>34,87%</t>
   </si>
   <si>
-    <t>31,29%</t>
-  </si>
-  <si>
-    <t>38,98%</t>
+    <t>31,27%</t>
+  </si>
+  <si>
+    <t>38,69%</t>
   </si>
   <si>
     <t>34,61%</t>
   </si>
   <si>
-    <t>32,03%</t>
-  </si>
-  <si>
-    <t>37,41%</t>
+    <t>31,83%</t>
+  </si>
+  <si>
+    <t>37,34%</t>
   </si>
   <si>
     <t>34,71%</t>
   </si>
   <si>
-    <t>32,54%</t>
-  </si>
-  <si>
-    <t>37,0%</t>
+    <t>32,49%</t>
+  </si>
+  <si>
+    <t>37,03%</t>
   </si>
   <si>
     <t>Si, pero no funciona correctamente</t>
@@ -104,28 +104,28 @@
     <t>2,51%</t>
   </si>
   <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
   </si>
   <si>
     <t>1,43%</t>
   </si>
   <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
   </si>
   <si>
     <t>1,86%</t>
   </si>
   <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
   </si>
   <si>
     <t>Si, funciona correctamente</t>
@@ -134,28 +134,28 @@
     <t>62,61%</t>
   </si>
   <si>
-    <t>58,59%</t>
-  </si>
-  <si>
-    <t>66,28%</t>
+    <t>58,78%</t>
+  </si>
+  <si>
+    <t>66,53%</t>
   </si>
   <si>
     <t>63,96%</t>
   </si>
   <si>
-    <t>61,2%</t>
-  </si>
-  <si>
-    <t>66,69%</t>
+    <t>61,05%</t>
+  </si>
+  <si>
+    <t>66,72%</t>
   </si>
   <si>
     <t>63,43%</t>
   </si>
   <si>
-    <t>61,04%</t>
-  </si>
-  <si>
-    <t>65,61%</t>
+    <t>61,14%</t>
+  </si>
+  <si>
+    <t>65,62%</t>
   </si>
   <si>
     <t>100%</t>
@@ -167,58 +167,61 @@
     <t>22,04%</t>
   </si>
   <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>24,35%</t>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>24,44%</t>
   </si>
   <si>
     <t>23,58%</t>
   </si>
   <si>
-    <t>25,93%</t>
+    <t>19,77%</t>
+  </si>
+  <si>
+    <t>25,94%</t>
   </si>
   <si>
     <t>22,83%</t>
   </si>
   <si>
-    <t>20,61%</t>
-  </si>
-  <si>
-    <t>24,57%</t>
+    <t>20,78%</t>
+  </si>
+  <si>
+    <t>24,63%</t>
   </si>
   <si>
     <t>1,07%</t>
   </si>
   <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
   </si>
   <si>
     <t>0,68%</t>
   </si>
   <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
   </si>
   <si>
     <t>0,87%</t>
   </si>
   <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
   </si>
   <si>
     <t>76,89%</t>
   </si>
   <si>
-    <t>74,54%</t>
+    <t>74,5%</t>
   </si>
   <si>
     <t>79,23%</t>
@@ -227,19 +230,19 @@
     <t>75,74%</t>
   </si>
   <si>
-    <t>73,36%</t>
-  </si>
-  <si>
-    <t>79,7%</t>
+    <t>73,39%</t>
+  </si>
+  <si>
+    <t>79,68%</t>
   </si>
   <si>
     <t>76,31%</t>
   </si>
   <si>
-    <t>74,41%</t>
-  </si>
-  <si>
-    <t>78,51%</t>
+    <t>74,57%</t>
+  </si>
+  <si>
+    <t>78,46%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -248,43 +251,43 @@
     <t>18,34%</t>
   </si>
   <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>21,85%</t>
+    <t>15,37%</t>
+  </si>
+  <si>
+    <t>21,83%</t>
   </si>
   <si>
     <t>21,89%</t>
   </si>
   <si>
-    <t>19,32%</t>
-  </si>
-  <si>
-    <t>24,88%</t>
+    <t>19,26%</t>
+  </si>
+  <si>
+    <t>24,77%</t>
   </si>
   <si>
     <t>20,16%</t>
   </si>
   <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>22,67%</t>
+    <t>18,06%</t>
+  </si>
+  <si>
+    <t>22,59%</t>
   </si>
   <si>
     <t>0,96%</t>
   </si>
   <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
   </si>
   <si>
     <t>1,05%</t>
   </si>
   <si>
-    <t>0,57%</t>
+    <t>0,55%</t>
   </si>
   <si>
     <t>1,76%</t>
@@ -296,58 +299,61 @@
     <t>0,59%</t>
   </si>
   <si>
-    <t>1,74%</t>
+    <t>1,7%</t>
   </si>
   <si>
     <t>80,7%</t>
   </si>
   <si>
-    <t>77,44%</t>
-  </si>
-  <si>
-    <t>83,99%</t>
+    <t>77,35%</t>
+  </si>
+  <si>
+    <t>83,86%</t>
   </si>
   <si>
     <t>77,06%</t>
   </si>
   <si>
-    <t>73,94%</t>
-  </si>
-  <si>
-    <t>79,74%</t>
+    <t>74,19%</t>
+  </si>
+  <si>
+    <t>79,83%</t>
   </si>
   <si>
     <t>78,83%</t>
   </si>
   <si>
-    <t>80,8%</t>
+    <t>76,47%</t>
+  </si>
+  <si>
+    <t>80,93%</t>
   </si>
   <si>
     <t>23,36%</t>
   </si>
   <si>
-    <t>21,47%</t>
-  </si>
-  <si>
-    <t>24,92%</t>
+    <t>21,52%</t>
+  </si>
+  <si>
+    <t>25,03%</t>
   </si>
   <si>
     <t>25,69%</t>
   </si>
   <si>
-    <t>23,17%</t>
-  </si>
-  <si>
-    <t>27,33%</t>
+    <t>23,24%</t>
+  </si>
+  <si>
+    <t>27,43%</t>
   </si>
   <si>
     <t>24,59%</t>
   </si>
   <si>
-    <t>23,09%</t>
-  </si>
-  <si>
-    <t>25,83%</t>
+    <t>23,12%</t>
+  </si>
+  <si>
+    <t>25,8%</t>
   </si>
   <si>
     <t>1,28%</t>
@@ -356,43 +362,52 @@
     <t>0,94%</t>
   </si>
   <si>
+    <t>1,73%</t>
+  </si>
+  <si>
     <t>0,92%</t>
   </si>
   <si>
     <t>0,69%</t>
   </si>
   <si>
-    <t>1,2%</t>
+    <t>1,19%</t>
   </si>
   <si>
     <t>1,09%</t>
   </si>
   <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
     <t>75,37%</t>
   </si>
   <si>
-    <t>73,74%</t>
-  </si>
-  <si>
-    <t>77,3%</t>
+    <t>73,65%</t>
+  </si>
+  <si>
+    <t>77,17%</t>
   </si>
   <si>
     <t>73,4%</t>
   </si>
   <si>
-    <t>71,73%</t>
-  </si>
-  <si>
-    <t>75,94%</t>
+    <t>71,59%</t>
+  </si>
+  <si>
+    <t>75,97%</t>
   </si>
   <si>
     <t>74,32%</t>
   </si>
   <si>
-    <t>73,03%</t>
-  </si>
-  <si>
-    <t>75,98%</t>
+    <t>73,1%</t>
+  </si>
+  <si>
+    <t>75,92%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -807,7 +822,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66151C66-D352-45A5-9EDC-E866107CD8FA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD5CF7A5-B311-4978-8E7B-254D418CB898}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1155,10 +1170,10 @@
         <v>45</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M8" s="7">
         <v>1164</v>
@@ -1167,13 +1182,13 @@
         <v>1006126</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1188,13 +1203,13 @@
         <v>23053</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H9" s="7">
         <v>29</v>
@@ -1203,13 +1218,13 @@
         <v>15232</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M9" s="7">
         <v>57</v>
@@ -1218,13 +1233,13 @@
         <v>38284</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1239,13 +1254,13 @@
         <v>1662388</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H10" s="7">
         <v>2166</v>
@@ -1254,13 +1269,13 @@
         <v>1701174</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M10" s="7">
         <v>3688</v>
@@ -1269,13 +1284,13 @@
         <v>3363561</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1331,7 +1346,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -1343,13 +1358,13 @@
         <v>123439</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H12" s="7">
         <v>230</v>
@@ -1358,13 +1373,13 @@
         <v>155885</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M12" s="7">
         <v>364</v>
@@ -1373,13 +1388,13 @@
         <v>279325</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1394,13 +1409,13 @@
         <v>6483</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H13" s="7">
         <v>12</v>
@@ -1409,13 +1424,13 @@
         <v>7506</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M13" s="7">
         <v>18</v>
@@ -1424,13 +1439,13 @@
         <v>13989</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1445,13 +1460,13 @@
         <v>543117</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H14" s="7">
         <v>759</v>
@@ -1460,13 +1475,13 @@
         <v>548895</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M14" s="7">
         <v>1300</v>
@@ -1475,13 +1490,13 @@
         <v>1092012</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>65</v>
+        <v>95</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1523,7 +1538,7 @@
         <v>1682</v>
       </c>
       <c r="N15" s="7">
-        <v>1385325</v>
+        <v>1385326</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>40</v>
@@ -1549,13 +1564,13 @@
         <v>788192</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H16" s="7">
         <v>1449</v>
@@ -1564,13 +1579,13 @@
         <v>974482</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="M16" s="7">
         <v>2263</v>
@@ -1579,13 +1594,13 @@
         <v>1762674</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1600,13 +1615,13 @@
         <v>43079</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>86</v>
+        <v>108</v>
       </c>
       <c r="H17" s="7">
         <v>64</v>
@@ -1615,13 +1630,13 @@
         <v>34711</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="M17" s="7">
         <v>114</v>
@@ -1630,13 +1645,13 @@
         <v>77790</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>56</v>
+        <v>113</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>28</v>
+        <v>114</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1651,13 +1666,13 @@
         <v>2543350</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="H18" s="7">
         <v>3831</v>
@@ -1666,13 +1681,13 @@
         <v>2784297</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="M18" s="7">
         <v>6329</v>
@@ -1681,13 +1696,13 @@
         <v>5327648</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1743,7 +1758,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P04C05_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P04C05_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2D6D8672-B324-44E1-AF10-003AD6D7B5E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{61ADD10C-1AE3-4E1C-9979-EE018BF438BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{91140314-702F-4EA7-963E-5C8B2C3E89DB}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{7927A004-BE07-4E9B-9B08-4E98890A38B0}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="121">
   <si>
     <t>Población con refrigeración por aire acondicionado mediante aparatos fijos en la vivienda en 2023 (Tasa respuesta: 99,87%)</t>
   </si>
@@ -71,91 +71,91 @@
     <t>No</t>
   </si>
   <si>
-    <t>34,87%</t>
-  </si>
-  <si>
-    <t>31,27%</t>
-  </si>
-  <si>
-    <t>38,69%</t>
-  </si>
-  <si>
-    <t>34,61%</t>
+    <t>35,5%</t>
   </si>
   <si>
     <t>31,83%</t>
   </si>
   <si>
-    <t>37,34%</t>
-  </si>
-  <si>
-    <t>34,71%</t>
-  </si>
-  <si>
-    <t>32,49%</t>
-  </si>
-  <si>
-    <t>37,03%</t>
+    <t>39,31%</t>
+  </si>
+  <si>
+    <t>35,25%</t>
+  </si>
+  <si>
+    <t>32,58%</t>
+  </si>
+  <si>
+    <t>37,96%</t>
+  </si>
+  <si>
+    <t>35,35%</t>
+  </si>
+  <si>
+    <t>33,11%</t>
+  </si>
+  <si>
+    <t>37,63%</t>
   </si>
   <si>
     <t>Si, pero no funciona correctamente</t>
   </si>
   <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
   </si>
   <si>
     <t>Si, funciona correctamente</t>
   </si>
   <si>
-    <t>62,61%</t>
-  </si>
-  <si>
-    <t>58,78%</t>
-  </si>
-  <si>
-    <t>66,53%</t>
-  </si>
-  <si>
-    <t>63,96%</t>
-  </si>
-  <si>
-    <t>61,05%</t>
-  </si>
-  <si>
-    <t>66,72%</t>
-  </si>
-  <si>
-    <t>63,43%</t>
-  </si>
-  <si>
-    <t>61,14%</t>
-  </si>
-  <si>
-    <t>65,62%</t>
+    <t>62,08%</t>
+  </si>
+  <si>
+    <t>58,27%</t>
+  </si>
+  <si>
+    <t>66,07%</t>
+  </si>
+  <si>
+    <t>63,29%</t>
+  </si>
+  <si>
+    <t>60,51%</t>
+  </si>
+  <si>
+    <t>66,02%</t>
+  </si>
+  <si>
+    <t>62,8%</t>
+  </si>
+  <si>
+    <t>60,56%</t>
+  </si>
+  <si>
+    <t>65,04%</t>
   </si>
   <si>
     <t>100%</t>
@@ -164,250 +164,238 @@
     <t>Secundarios</t>
   </si>
   <si>
-    <t>22,04%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>24,44%</t>
-  </si>
-  <si>
-    <t>23,58%</t>
-  </si>
-  <si>
-    <t>19,77%</t>
-  </si>
-  <si>
-    <t>25,94%</t>
-  </si>
-  <si>
-    <t>22,83%</t>
-  </si>
-  <si>
     <t>20,78%</t>
   </si>
   <si>
-    <t>24,63%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>23,84%</t>
+  </si>
+  <si>
+    <t>24,68%</t>
+  </si>
+  <si>
+    <t>18,93%</t>
+  </si>
+  <si>
+    <t>31,35%</t>
+  </si>
+  <si>
+    <t>22,71%</t>
+  </si>
+  <si>
+    <t>18,73%</t>
+  </si>
+  <si>
+    <t>26,8%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>78,27%</t>
+  </si>
+  <si>
+    <t>75,0%</t>
+  </si>
+  <si>
+    <t>84,14%</t>
+  </si>
+  <si>
+    <t>74,69%</t>
+  </si>
+  <si>
+    <t>68,04%</t>
+  </si>
+  <si>
+    <t>80,53%</t>
+  </si>
+  <si>
+    <t>76,5%</t>
+  </si>
+  <si>
+    <t>72,56%</t>
+  </si>
+  <si>
+    <t>80,73%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>21,91%</t>
+  </si>
+  <si>
+    <t>22,06%</t>
+  </si>
+  <si>
+    <t>19,38%</t>
+  </si>
+  <si>
+    <t>24,97%</t>
+  </si>
+  <si>
+    <t>20,27%</t>
+  </si>
+  <si>
+    <t>18,11%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
   </si>
   <si>
     <t>1,0%</t>
   </si>
   <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>80,61%</t>
+  </si>
+  <si>
+    <t>77,17%</t>
+  </si>
+  <si>
+    <t>83,8%</t>
+  </si>
+  <si>
+    <t>76,9%</t>
+  </si>
+  <si>
+    <t>73,96%</t>
+  </si>
+  <si>
+    <t>79,66%</t>
+  </si>
+  <si>
+    <t>78,74%</t>
+  </si>
+  <si>
+    <t>76,36%</t>
+  </si>
+  <si>
+    <t>80,89%</t>
+  </si>
+  <si>
+    <t>22,53%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>24,88%</t>
+  </si>
+  <si>
+    <t>26,39%</t>
+  </si>
+  <si>
+    <t>22,29%</t>
+  </si>
+  <si>
+    <t>30,52%</t>
+  </si>
+  <si>
+    <t>24,52%</t>
+  </si>
+  <si>
+    <t>21,34%</t>
+  </si>
+  <si>
+    <t>26,9%</t>
   </si>
   <si>
     <t>1,17%</t>
   </si>
   <si>
-    <t>76,89%</t>
-  </si>
-  <si>
-    <t>74,5%</t>
-  </si>
-  <si>
-    <t>79,23%</t>
-  </si>
-  <si>
-    <t>75,74%</t>
-  </si>
-  <si>
-    <t>73,39%</t>
-  </si>
-  <si>
-    <t>79,68%</t>
-  </si>
-  <si>
-    <t>76,31%</t>
-  </si>
-  <si>
-    <t>74,57%</t>
-  </si>
-  <si>
-    <t>78,46%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>18,34%</t>
-  </si>
-  <si>
-    <t>15,37%</t>
-  </si>
-  <si>
-    <t>21,83%</t>
-  </si>
-  <si>
-    <t>21,89%</t>
-  </si>
-  <si>
-    <t>19,26%</t>
-  </si>
-  <si>
-    <t>24,77%</t>
-  </si>
-  <si>
-    <t>20,16%</t>
-  </si>
-  <si>
-    <t>18,06%</t>
-  </si>
-  <si>
-    <t>22,59%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>80,7%</t>
-  </si>
-  <si>
-    <t>77,35%</t>
-  </si>
-  <si>
-    <t>83,86%</t>
-  </si>
-  <si>
-    <t>77,06%</t>
-  </si>
-  <si>
-    <t>74,19%</t>
-  </si>
-  <si>
-    <t>79,83%</t>
-  </si>
-  <si>
-    <t>78,83%</t>
-  </si>
-  <si>
-    <t>76,47%</t>
-  </si>
-  <si>
-    <t>80,93%</t>
-  </si>
-  <si>
-    <t>23,36%</t>
-  </si>
-  <si>
-    <t>21,52%</t>
-  </si>
-  <si>
-    <t>25,03%</t>
-  </si>
-  <si>
-    <t>25,69%</t>
-  </si>
-  <si>
-    <t>23,24%</t>
-  </si>
-  <si>
-    <t>27,43%</t>
-  </si>
-  <si>
-    <t>24,59%</t>
-  </si>
-  <si>
-    <t>23,12%</t>
-  </si>
-  <si>
-    <t>25,8%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>75,37%</t>
-  </si>
-  <si>
-    <t>73,65%</t>
-  </si>
-  <si>
-    <t>77,17%</t>
-  </si>
-  <si>
-    <t>73,4%</t>
-  </si>
-  <si>
-    <t>71,59%</t>
-  </si>
-  <si>
-    <t>75,97%</t>
-  </si>
-  <si>
-    <t>74,32%</t>
-  </si>
-  <si>
-    <t>73,1%</t>
-  </si>
-  <si>
-    <t>75,92%</t>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>76,3%</t>
+  </si>
+  <si>
+    <t>73,91%</t>
+  </si>
+  <si>
+    <t>81,7%</t>
+  </si>
+  <si>
+    <t>72,73%</t>
+  </si>
+  <si>
+    <t>68,69%</t>
+  </si>
+  <si>
+    <t>77,03%</t>
+  </si>
+  <si>
+    <t>74,46%</t>
+  </si>
+  <si>
+    <t>72,09%</t>
+  </si>
+  <si>
+    <t>77,8%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -822,7 +810,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD5CF7A5-B311-4978-8E7B-254D418CB898}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F299D0D-5AE9-4014-8E77-8616F31E6143}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -943,7 +931,7 @@
         <v>238</v>
       </c>
       <c r="D4" s="7">
-        <v>188171</v>
+        <v>182073</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -958,7 +946,7 @@
         <v>497</v>
       </c>
       <c r="I4" s="7">
-        <v>289052</v>
+        <v>266111</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -973,7 +961,7 @@
         <v>735</v>
       </c>
       <c r="N4" s="7">
-        <v>477223</v>
+        <v>448184</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -994,7 +982,7 @@
         <v>16</v>
       </c>
       <c r="D5" s="7">
-        <v>13543</v>
+        <v>12433</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1009,7 +997,7 @@
         <v>23</v>
       </c>
       <c r="I5" s="7">
-        <v>11973</v>
+        <v>11028</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1024,7 +1012,7 @@
         <v>39</v>
       </c>
       <c r="N5" s="7">
-        <v>25517</v>
+        <v>23461</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1045,7 +1033,7 @@
         <v>435</v>
       </c>
       <c r="D6" s="7">
-        <v>337845</v>
+        <v>318439</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>31</v>
@@ -1060,7 +1048,7 @@
         <v>906</v>
       </c>
       <c r="I6" s="7">
-        <v>534229</v>
+        <v>477738</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
@@ -1075,7 +1063,7 @@
         <v>1341</v>
       </c>
       <c r="N6" s="7">
-        <v>872074</v>
+        <v>796177</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>37</v>
@@ -1096,7 +1084,7 @@
         <v>689</v>
       </c>
       <c r="D7" s="7">
-        <v>539560</v>
+        <v>512945</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>40</v>
@@ -1111,7 +1099,7 @@
         <v>1426</v>
       </c>
       <c r="I7" s="7">
-        <v>835254</v>
+        <v>754877</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>40</v>
@@ -1126,7 +1114,7 @@
         <v>2115</v>
       </c>
       <c r="N7" s="7">
-        <v>1374814</v>
+        <v>1267822</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>40</v>
@@ -1149,7 +1137,7 @@
         <v>442</v>
       </c>
       <c r="D8" s="7">
-        <v>476582</v>
+        <v>475963</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>42</v>
@@ -1164,7 +1152,7 @@
         <v>722</v>
       </c>
       <c r="I8" s="7">
-        <v>529545</v>
+        <v>551429</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>45</v>
@@ -1179,7 +1167,7 @@
         <v>1164</v>
       </c>
       <c r="N8" s="7">
-        <v>1006126</v>
+        <v>1027392</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>48</v>
@@ -1200,7 +1188,7 @@
         <v>28</v>
       </c>
       <c r="D9" s="7">
-        <v>23053</v>
+        <v>21792</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>51</v>
@@ -1215,7 +1203,7 @@
         <v>29</v>
       </c>
       <c r="I9" s="7">
-        <v>15232</v>
+        <v>14065</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>54</v>
@@ -1230,7 +1218,7 @@
         <v>57</v>
       </c>
       <c r="N9" s="7">
-        <v>38284</v>
+        <v>35857</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>57</v>
@@ -1251,7 +1239,7 @@
         <v>1522</v>
       </c>
       <c r="D10" s="7">
-        <v>1662388</v>
+        <v>1792572</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>60</v>
@@ -1266,7 +1254,7 @@
         <v>2166</v>
       </c>
       <c r="I10" s="7">
-        <v>1701174</v>
+        <v>1668936</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>63</v>
@@ -1281,7 +1269,7 @@
         <v>3688</v>
       </c>
       <c r="N10" s="7">
-        <v>3363561</v>
+        <v>3461508</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>66</v>
@@ -1302,7 +1290,7 @@
         <v>1992</v>
       </c>
       <c r="D11" s="7">
-        <v>2162022</v>
+        <v>2290327</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>40</v>
@@ -1317,7 +1305,7 @@
         <v>2917</v>
       </c>
       <c r="I11" s="7">
-        <v>2245950</v>
+        <v>2234430</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>40</v>
@@ -1332,7 +1320,7 @@
         <v>4909</v>
       </c>
       <c r="N11" s="7">
-        <v>4407972</v>
+        <v>4524757</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>40</v>
@@ -1355,7 +1343,7 @@
         <v>134</v>
       </c>
       <c r="D12" s="7">
-        <v>123439</v>
+        <v>119230</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>70</v>
@@ -1370,7 +1358,7 @@
         <v>230</v>
       </c>
       <c r="I12" s="7">
-        <v>155885</v>
+        <v>145398</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>73</v>
@@ -1385,7 +1373,7 @@
         <v>364</v>
       </c>
       <c r="N12" s="7">
-        <v>279325</v>
+        <v>264628</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>76</v>
@@ -1394,7 +1382,7 @@
         <v>77</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>78</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1406,46 +1394,46 @@
         <v>6</v>
       </c>
       <c r="D13" s="7">
-        <v>6483</v>
+        <v>6162</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H13" s="7">
         <v>12</v>
       </c>
       <c r="I13" s="7">
-        <v>7506</v>
+        <v>6839</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>83</v>
+        <v>58</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="M13" s="7">
         <v>18</v>
       </c>
       <c r="N13" s="7">
-        <v>13989</v>
+        <v>13000</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1457,46 +1445,46 @@
         <v>541</v>
       </c>
       <c r="D14" s="7">
-        <v>543117</v>
+        <v>521231</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H14" s="7">
         <v>759</v>
       </c>
       <c r="I14" s="7">
-        <v>548895</v>
+        <v>506722</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="M14" s="7">
         <v>1300</v>
       </c>
       <c r="N14" s="7">
-        <v>1092012</v>
+        <v>1027953</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1508,7 +1496,7 @@
         <v>681</v>
       </c>
       <c r="D15" s="7">
-        <v>673039</v>
+        <v>646623</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>40</v>
@@ -1523,7 +1511,7 @@
         <v>1001</v>
       </c>
       <c r="I15" s="7">
-        <v>712286</v>
+        <v>658959</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>40</v>
@@ -1538,7 +1526,7 @@
         <v>1682</v>
       </c>
       <c r="N15" s="7">
-        <v>1385326</v>
+        <v>1305582</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>40</v>
@@ -1561,46 +1549,46 @@
         <v>814</v>
       </c>
       <c r="D16" s="7">
-        <v>788192</v>
+        <v>777266</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="H16" s="7">
         <v>1449</v>
       </c>
       <c r="I16" s="7">
-        <v>974482</v>
+        <v>962937</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="M16" s="7">
         <v>2263</v>
       </c>
       <c r="N16" s="7">
-        <v>1762674</v>
+        <v>1740204</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1612,46 +1600,46 @@
         <v>50</v>
       </c>
       <c r="D17" s="7">
-        <v>43079</v>
+        <v>40386</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="H17" s="7">
         <v>64</v>
       </c>
       <c r="I17" s="7">
-        <v>34711</v>
+        <v>31932</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="M17" s="7">
         <v>114</v>
       </c>
       <c r="N17" s="7">
-        <v>77790</v>
+        <v>72318</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>114</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1663,46 +1651,46 @@
         <v>2498</v>
       </c>
       <c r="D18" s="7">
-        <v>2543350</v>
+        <v>2632242</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="H18" s="7">
         <v>3831</v>
       </c>
       <c r="I18" s="7">
-        <v>2784297</v>
+        <v>2653396</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="M18" s="7">
         <v>6329</v>
       </c>
       <c r="N18" s="7">
-        <v>5327648</v>
+        <v>5285639</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1714,7 +1702,7 @@
         <v>3362</v>
       </c>
       <c r="D19" s="7">
-        <v>3374621</v>
+        <v>3449895</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>40</v>
@@ -1729,7 +1717,7 @@
         <v>5344</v>
       </c>
       <c r="I19" s="7">
-        <v>3793490</v>
+        <v>3648265</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>40</v>
@@ -1744,7 +1732,7 @@
         <v>8706</v>
       </c>
       <c r="N19" s="7">
-        <v>7168112</v>
+        <v>7098161</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>40</v>
@@ -1758,7 +1746,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
